--- a/src/stats/outputTables/table_for_correlation.xlsx
+++ b/src/stats/outputTables/table_for_correlation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachit/Dropbox/EASeL/Arunim/SAR-VR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\stats\outputTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7B62AE-7CE4-4C4B-8F9B-C34F826EA7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E8592-9BB3-45C7-9598-DA73F0E496CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1240" windowWidth="27160" windowHeight="16760" xr2:uid="{98265091-41D3-E046-86A8-A076E980E763}"/>
+    <workbookView xWindow="-23148" yWindow="-168" windowWidth="23256" windowHeight="12456" xr2:uid="{98265091-41D3-E046-86A8-A076E980E763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,39 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>movement cues</t>
-  </si>
-  <si>
-    <t>cognitive load measures</t>
-  </si>
-  <si>
-    <t>EEG based</t>
-  </si>
-  <si>
-    <t>Pupil diameter</t>
-  </si>
-  <si>
-    <t>Saccade frequency</t>
-  </si>
-  <si>
-    <t>R value (pvalue)</t>
-  </si>
-  <si>
-    <t>Window size</t>
-  </si>
-  <si>
-    <t>turn rate (deg./s)</t>
-  </si>
-  <si>
-    <t>speed (m/s)</t>
-  </si>
-  <si>
-    <t>freezing time (fraction)</t>
-  </si>
-  <si>
-    <t>turning while still (fraction)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>SwarmCohesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetKnowledge  </t>
+  </si>
+  <si>
+    <t>TerrainKnowledge</t>
+  </si>
+  <si>
+    <t>Predictor (min, max value)</t>
+  </si>
+  <si>
+    <t>Mental TLX</t>
+  </si>
+  <si>
+    <t>Physical TLX</t>
+  </si>
+  <si>
+    <t>Temporal TLX</t>
+  </si>
+  <si>
+    <t>Effort TLX</t>
+  </si>
+  <si>
+    <t>Frustration TLX</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Performance TLX</t>
   </si>
 </sst>
 </file>
@@ -84,11 +96,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,14 +123,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,150 +468,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647EA31-8B36-D946-8266-82C06D950D8B}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="18" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="9.375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10.987</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.67200000000000004</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.441</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-1.446</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.0359999999999996</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-0.153</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.1386</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3.3370000000000002</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8.7870000000000008</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-1.198</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-1.448</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-1.085</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.151</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-0.153</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-1.0609999999999999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-1.627</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1">
-        <v>20</v>
-      </c>
-      <c r="O3" s="1">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>15</v>
-      </c>
-      <c r="R3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B16" s="5">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.74299999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="C1:R1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>